--- a/data/_ara/sg_data.xlsx
+++ b/data/_ara/sg_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itnote/AppKang/app/python/colaborator/data/_ara/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0983371E-A197-9D4F-8931-9B295F90B2BC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064DC47B-6CB5-9543-805F-20215CAF5CD9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47520" yWindow="8200" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40140" yWindow="8360" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시설정보 (2)" sheetId="3" r:id="rId1"/>
@@ -22,15 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="40">
   <si>
-    <t>시설그룹명</t>
-  </si>
-  <si>
-    <t>시설코드</t>
-  </si>
-  <si>
-    <t>시설명</t>
-  </si>
-  <si>
     <t>은행코드</t>
   </si>
   <si>
@@ -140,13 +131,25 @@
   </si>
   <si>
     <t>한화아쿠아플라넷제주</t>
+  </si>
+  <si>
+    <t>sg_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sg_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sg_type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -171,6 +174,13 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="4">
@@ -234,7 +244,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -252,6 +262,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A03362E-849F-4F41-9D74-48BA6061DC68}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -589,448 +602,448 @@
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" s="2">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" s="2">
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B7" s="2">
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B8" s="2">
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B9" s="2">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2">
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2">
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2">
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2">
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2">
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2">
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B16" s="2">
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2">
         <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B18" s="2">
         <v>16</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2">
         <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2">
         <v>18</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B21" s="2">
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B22" s="2">
         <v>20</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B23" s="2">
         <v>21</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B24" s="2">
         <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B25" s="2">
         <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B26" s="2">
         <v>24</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B27" s="2">
         <v>25</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B28" s="2">
         <v>26</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:5">
